--- a/CraftSync_Project/app/static/data/体験者データ.xlsx
+++ b/CraftSync_Project/app/static/data/体験者データ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,40 +825,6 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12/06/2024, 13:51:40</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CraftSync_Project/app/static/data/体験者データ.xlsx
+++ b/CraftSync_Project/app/static/data/体験者データ.xlsx
@@ -488,341 +488,341 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:30</t>
+          <t>06/06/2024, 13:56:02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.451</v>
+        <v>0.067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11</v>
+        <v>-0.082</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="H2" t="n">
-        <v>1.05</v>
+        <v>1.381</v>
       </c>
       <c r="I2" t="n">
-        <v>0.59</v>
+        <v>0.882</v>
       </c>
       <c r="J2" t="n">
-        <v>0.57</v>
+        <v>-0.174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:31</t>
+          <t>06/06/2024, 13:56:03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.449</v>
+        <v>0.066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.065</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.542</v>
+        <v>0.953</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="H3" t="n">
-        <v>1.07</v>
+        <v>-1.55</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6</v>
+        <v>6.79</v>
       </c>
       <c r="J3" t="n">
-        <v>0.55</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:32</t>
+          <t>06/06/2024, 13:56:04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.45</v>
+        <v>0.0665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.068</v>
+        <v>0.08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="E4" t="n">
-        <v>0.11</v>
+        <v>-0.092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.88</v>
       </c>
       <c r="G4" t="n">
-        <v>0.95</v>
+        <v>0.322</v>
       </c>
       <c r="H4" t="n">
-        <v>1.05</v>
+        <v>2.441</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.892</v>
       </c>
       <c r="J4" t="n">
-        <v>0.53</v>
+        <v>-2.592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:33</t>
+          <t>06/06/2024, 13:56:05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.451</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.066</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>0.55</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.912</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.325</v>
       </c>
       <c r="H5" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="J5" t="n">
-        <v>0.53</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:34</t>
+          <t>06/06/2024, 13:56:06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.452</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.064</v>
+        <v>0.068</v>
       </c>
       <c r="D6" t="n">
-        <v>0.514</v>
+        <v>0.41</v>
       </c>
       <c r="E6" t="n">
-        <v>0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.92</v>
       </c>
       <c r="G6" t="n">
-        <v>0.96</v>
+        <v>0.31</v>
       </c>
       <c r="H6" t="n">
-        <v>0.95</v>
+        <v>-6.91</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.49</v>
+        <v>2.112</v>
       </c>
       <c r="J6" t="n">
-        <v>0.68</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:35</t>
+          <t>06/06/2024, 13:56:07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.951</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.067</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.517</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.97</v>
       </c>
       <c r="G7" t="n">
-        <v>0.96</v>
+        <v>0.232</v>
       </c>
       <c r="H7" t="n">
-        <v>0.96</v>
+        <v>-1.132</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.22</v>
+        <v>0.461</v>
       </c>
       <c r="J7" t="n">
-        <v>0.25</v>
+        <v>3.852</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:36</t>
+          <t>06/06/2024, 13:56:08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.447</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.066</v>
+        <v>0.409</v>
       </c>
       <c r="D8" t="n">
-        <v>0.52</v>
+        <v>0.945</v>
       </c>
       <c r="E8" t="n">
-        <v>0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="G8" t="n">
-        <v>0.97</v>
+        <v>0.3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.91</v>
+        <v>21.733</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.33</v>
+        <v>23.77</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.03</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:37</t>
+          <t>06/06/2024, 13:56:09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.449</v>
+        <v>0.065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.068</v>
+        <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.982</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.11</v>
+        <v>0.011</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.823</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="H9" t="n">
-        <v>1.11</v>
+        <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5600000000000001</v>
+        <v>-2.493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:39</t>
+          <t>06/06/2024, 13:56:10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.447</v>
+        <v>0.068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.068</v>
+        <v>0.449</v>
       </c>
       <c r="D10" t="n">
-        <v>0.504</v>
+        <v>0.515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1</v>
+        <v>-0.061</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.85</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="H10" t="n">
-        <v>1.05</v>
+        <v>-10.12</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5600000000000001</v>
+        <v>-2.71</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12/06/2024, 13:51:39</t>
+          <t>06/06/2024, 13:56:11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.448</v>
+        <v>0.0663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.798</v>
+        <v>0.4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.802</v>
+        <v>0.49</v>
       </c>
       <c r="E11" t="n">
-        <v>0.13</v>
+        <v>-0.051</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.893</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.413</v>
       </c>
       <c r="H11" t="n">
-        <v>0.43</v>
+        <v>1.27</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.91</v>
+        <v>3.21</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.79</v>
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
